--- a/Team-Data/2012-13/2-26-2012-13.xlsx
+++ b/Team-Data/2012-13/2-26-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -762,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -783,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -810,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -983,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
         <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.586</v>
+        <v>0.579</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,28 +1115,28 @@
         <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L4" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
         <v>17.5</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R4" t="n">
         <v>12.6</v>
@@ -1078,49 +1145,49 @@
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7</v>
-      </c>
-      <c r="X4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>95.2</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>8</v>
@@ -1144,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1162,25 +1229,25 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>0.228</v>
+        <v>0.232</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,7 +1297,7 @@
         <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.42</v>
@@ -1245,22 +1312,22 @@
         <v>0.347</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
         <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U5" t="n">
         <v>18.9</v>
@@ -1272,25 +1339,25 @@
         <v>7.1</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
         <v>7.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.199999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1326,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>14</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O6" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.779</v>
@@ -1439,13 +1506,13 @@
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
@@ -1454,46 +1521,46 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,31 +1569,31 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -1576,34 +1643,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.333</v>
+        <v>0.321</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
         <v>84.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N7" t="n">
         <v>0.354</v>
@@ -1612,22 +1679,22 @@
         <v>17.2</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R7" t="n">
         <v>12.6</v>
       </c>
       <c r="S7" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
         <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>14.1</v>
@@ -1639,43 +1706,43 @@
         <v>3.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1708,10 +1775,10 @@
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,13 +1790,13 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.446</v>
+        <v>0.455</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
         <v>84.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L8" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
         <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
         <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.8</v>
+        <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1827,22 +1894,22 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="AC8" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1854,19 +1921,19 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1884,34 +1951,34 @@
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2039,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2209,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
         <v>20</v>
@@ -2245,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
@@ -2260,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="n">
         <v>33</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K11" t="n">
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M11" t="n">
         <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
         <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
         <v>0.798</v>
@@ -2355,10 +2422,10 @@
         <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2367,34 +2434,34 @@
         <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z11" t="n">
         <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF11" t="n">
         <v>9</v>
       </c>
-      <c r="AF11" t="n">
-        <v>10</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2412,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2433,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2442,7 +2509,7 @@
         <v>28</v>
       </c>
       <c r="AX11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2609,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.632</v>
+        <v>0.625</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2698,13 +2765,13 @@
         <v>19.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
         <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.741</v>
@@ -2713,10 +2780,10 @@
         <v>12.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
@@ -2725,7 +2792,7 @@
         <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>6.7</v>
@@ -2737,19 +2804,19 @@
         <v>20</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
@@ -2764,10 +2831,10 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
@@ -2776,10 +2843,10 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2788,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2800,10 +2867,10 @@
         <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,10 +2935,10 @@
         <v>38.2</v>
       </c>
       <c r="J14" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>7.3</v>
@@ -2880,28 +2947,28 @@
         <v>20.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.361</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P14" t="n">
         <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.703</v>
+        <v>0.708</v>
       </c>
       <c r="R14" t="n">
         <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>15</v>
@@ -2910,28 +2977,28 @@
         <v>9.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>7</v>
@@ -2949,28 +3016,28 @@
         <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>10</v>
       </c>
       <c r="AN14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR14" t="n">
         <v>12</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>19</v>
@@ -2979,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>20</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3119,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3140,10 +3207,10 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3173,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3304,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3313,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.745</v>
+        <v>0.741</v>
       </c>
       <c r="H17" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O17" t="n">
         <v>17.3</v>
@@ -3435,28 +3502,28 @@
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T17" t="n">
         <v>38.6</v>
       </c>
       <c r="U17" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="V17" t="n">
         <v>13.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,19 +3532,19 @@
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.9</v>
+        <v>103.2</v>
       </c>
       <c r="AC17" t="n">
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3486,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>0.491</v>
+        <v>0.481</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
@@ -3608,25 +3675,25 @@
         <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S18" t="n">
         <v>30.7</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
         <v>22.3</v>
@@ -3635,10 +3702,10 @@
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
@@ -3653,10 +3720,10 @@
         <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3665,22 +3732,22 @@
         <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>24</v>
@@ -3710,10 +3777,10 @@
         <v>13</v>
       </c>
       <c r="AV18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3728,10 +3795,10 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="n">
-        <v>0.37</v>
+        <v>0.377</v>
       </c>
       <c r="H19" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
@@ -3799,43 +3866,43 @@
         <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R19" t="n">
         <v>12.8</v>
       </c>
       <c r="S19" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3847,19 +3914,19 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,22 +3938,22 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -3895,10 +3962,10 @@
         <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.345</v>
+        <v>0.351</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
         <v>36.4</v>
       </c>
       <c r="J20" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K20" t="n">
         <v>0.453</v>
@@ -3969,16 +4036,16 @@
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N20" t="n">
         <v>0.373</v>
       </c>
       <c r="O20" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q20" t="n">
         <v>0.769</v>
@@ -3987,22 +4054,22 @@
         <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.5</v>
       </c>
       <c r="V20" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
@@ -4011,7 +4078,7 @@
         <v>20.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
         <v>94.5</v>
@@ -4020,19 +4087,19 @@
         <v>-2.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
         <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>20</v>
@@ -4044,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4065,16 +4132,16 @@
         <v>16</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -4214,10 +4281,10 @@
         <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
         <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.281</v>
+        <v>0.268</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.337</v>
+        <v>0.336</v>
       </c>
       <c r="O23" t="n">
         <v>12.1</v>
@@ -4527,46 +4594,46 @@
         <v>15.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA23" t="n">
         <v>16.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,19 +4645,19 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
@@ -4599,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
         <v>30</v>
@@ -4611,13 +4678,13 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>11</v>
@@ -4626,13 +4693,13 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.441</v>
@@ -4697,7 +4764,7 @@
         <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N24" t="n">
         <v>0.35</v>
@@ -4712,16 +4779,16 @@
         <v>0.723</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V24" t="n">
         <v>12.9</v>
@@ -4730,25 +4797,25 @@
         <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>92</v>
+        <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4757,19 +4824,19 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH24" t="n">
         <v>21</v>
       </c>
-      <c r="AH24" t="n">
-        <v>22</v>
-      </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4781,7 +4848,7 @@
         <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4790,16 +4857,16 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,13 +4875,13 @@
         <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="n">
         <v>39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.328</v>
+        <v>0.316</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,7 +4937,7 @@
         <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.442</v>
@@ -4879,70 +4946,70 @@
         <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U25" t="n">
         <v>22.2</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4963,46 +5030,46 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>15</v>
       </c>
       <c r="AS25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT25" t="n">
         <v>21</v>
       </c>
-      <c r="AT25" t="n">
-        <v>18</v>
-      </c>
       <c r="AU25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV25" t="n">
         <v>15</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>17</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>22</v>
@@ -5133,7 +5200,7 @@
         <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5166,10 +5233,10 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.328</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
         <v>0.762</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
         <v>40.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
@@ -5279,52 +5346,52 @@
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5351,22 +5418,22 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5539,7 +5606,7 @@
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
         <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5679,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5730,7 +5797,7 @@
         <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,16 +5919,16 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5897,7 +5964,7 @@
         <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-3.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI31" t="n">
         <v>27</v>
@@ -6055,7 +6122,7 @@
         <v>19</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6064,13 +6131,13 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-26-2012-13</t>
+          <t>2013-02-26</t>
         </is>
       </c>
     </row>
